--- a/biology/Botanique/Gymnogongrus/Gymnogongrus.xlsx
+++ b/biology/Botanique/Gymnogongrus/Gymnogongrus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gymnogongrus est un genre d’algues rouges de la famille des Phyllophoraceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (5 novembre 2017)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (5 novembre 2017) :
 Gymnogongrus aequicrassus Børgesen
 Gymnogongrus antarcticus Skottsberg
 Gymnogongrus carnosus Setchell
@@ -542,7 +556,7 @@
 Gymnogongrus torreyi (C.Agardh) J.Agardh
 Gymnogongrus torulosus (J.D.Hooker &amp; Harvey) F.Schmitz
 Gymnogongrus turquetii Hariot
-Selon BioLib                    (5 novembre 2017)[3] :
+Selon BioLib                    (5 novembre 2017) :
 Gymnogongrus chiton (Howe) Silva &amp; De Cew
 Gymnogongrus crenulatus
 Gymnogongrus crustiforme
@@ -556,7 +570,7 @@
 Gymnogongrus platyphyllus
 Gymnogongrus tenuis (J. Agardh) J. Agardh
 Gymnogongrus vermicularis
-Selon ITIS      (5 novembre 2017)[4] :
+Selon ITIS      (5 novembre 2017) :
 Gymnogongrus chiton (Howe) Silva &amp; De Cew
 Gymnogongrus crenulatus
 Gymnogongrus crustiforme
@@ -570,7 +584,7 @@
 Gymnogongrus platyphyllus
 Gymnogongrus tenuis (J. Agardh) J. Agardh
 Gymnogongrus vermicularis
-Selon NCBI  (5 novembre 2017)[5] :
+Selon NCBI  (5 novembre 2017) :
 Gymnogongrus antarcticus
 Gymnogongrus caespitosus
 Gymnogongrus crenulatus
@@ -583,7 +597,7 @@
 Gymnogongrus martinensis
 Gymnogongrus torulosus
 Gymnogongrus turquetii
-Selon World Register of Marine Species                               (5 novembre 2017)[2] :
+Selon World Register of Marine Species                               (5 novembre 2017) :
 Gymnogongrus aequicrassus Børgesen, 1924
 Gymnogongrus antarcticus Skottsberg, 1953
 Gymnogongrus carnosus Setchell &amp; 1924
